--- a/source_data/A4backup.xlsx
+++ b/source_data/A4backup.xlsx
@@ -1200,13 +1200,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" zoomScale="159" zoomScaleNormal="159" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="2" max="2" width="9.69230769230769"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
@@ -1837,10 +1837,11 @@
         <v>5</v>
       </c>
       <c r="D37" s="2">
-        <v>0.088</v>
+        <v>357.9</v>
       </c>
       <c r="E37" s="2">
-        <v>990</v>
+        <f>D37*11250</f>
+        <v>4026375</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2064,7 +2065,7 @@
         <v>9777150</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>201502</v>
       </c>
@@ -2080,8 +2081,9 @@
       <c r="E51" s="3">
         <v>11101995</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>201503</v>
       </c>
@@ -2097,6 +2099,7 @@
       <c r="E52" s="2">
         <v>6750450</v>
       </c>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
@@ -2676,7 +2679,7 @@
         <v>2300666.4</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>201802</v>
       </c>
@@ -2686,10 +2689,16 @@
       <c r="C87" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="D87" s="2">
+        <v>448.7</v>
+      </c>
+      <c r="E87" s="2">
+        <f>11925*D87</f>
+        <v>5350747.5</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>201803</v>
       </c>
@@ -2705,6 +2714,7 @@
       <c r="E88" s="2">
         <v>8400399.3</v>
       </c>
+      <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
@@ -2842,7 +2852,7 @@
         <v>5273950.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>201812</v>
       </c>
@@ -2852,10 +2862,16 @@
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="D97" s="2">
+        <v>415.6</v>
+      </c>
+      <c r="E97" s="2">
+        <f>D97*11925</f>
+        <v>4956030</v>
+      </c>
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>201901</v>
       </c>
@@ -2869,8 +2885,10 @@
         <v>389.016</v>
       </c>
       <c r="E98" s="2">
+        <f>D98*11925</f>
         <v>4639015.8</v>
       </c>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
@@ -2882,10 +2900,15 @@
       <c r="C99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="D99" s="2">
+        <v>539.5</v>
+      </c>
+      <c r="E99" s="2">
+        <f>D99*11925</f>
+        <v>6433537.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>201903</v>
       </c>
@@ -2901,8 +2924,9 @@
       <c r="E100" s="2">
         <v>8227486.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>201904</v>
       </c>
@@ -2918,6 +2942,7 @@
       <c r="E101" s="3">
         <v>10492044.3</v>
       </c>
+      <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
@@ -3004,7 +3029,7 @@
         <v>11325888</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>201910</v>
       </c>
@@ -3020,8 +3045,9 @@
       <c r="E107" s="3">
         <v>11457921.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>201911</v>
       </c>
@@ -3037,6 +3063,7 @@
       <c r="E108" s="3">
         <v>11599304.4</v>
       </c>
+      <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
@@ -3048,8 +3075,13 @@
       <c r="C109" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
+      <c r="D109" s="2">
+        <v>640.4</v>
+      </c>
+      <c r="E109" s="2">
+        <f>D109*11925</f>
+        <v>7636770</v>
+      </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
@@ -3119,7 +3151,7 @@
         <v>10623887.1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>202005</v>
       </c>
@@ -3135,8 +3167,10 @@
       <c r="E114" s="3">
         <v>11527802.1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114"/>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>202006</v>
       </c>
@@ -3152,8 +3186,11 @@
       <c r="E115" s="3">
         <v>11635461</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115"/>
+      <c r="I115" s="2"/>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>202007</v>
       </c>
@@ -3169,8 +3206,11 @@
       <c r="E116" s="2">
         <v>8323363.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116"/>
+      <c r="I116" s="2"/>
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>202008</v>
       </c>
@@ -3186,8 +3226,10 @@
       <c r="E117" s="3">
         <v>10799232.3</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117"/>
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>202009</v>
       </c>
@@ -3203,8 +3245,9 @@
       <c r="E118" s="3">
         <v>10238614.2</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>202010</v>
       </c>
@@ -3220,8 +3263,9 @@
       <c r="E119" s="3">
         <v>10225449</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>202011</v>
       </c>
@@ -3231,10 +3275,16 @@
       <c r="C120" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="D120" s="2">
+        <v>585.294</v>
+      </c>
+      <c r="E120" s="2">
+        <f>D120*11925</f>
+        <v>6979630.95</v>
+      </c>
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>202012</v>
       </c>
@@ -3244,10 +3294,16 @@
       <c r="C121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="D121" s="2">
+        <v>563.3</v>
+      </c>
+      <c r="E121" s="2">
+        <f>D121*11925</f>
+        <v>6717352.5</v>
+      </c>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>202101</v>
       </c>
@@ -3257,10 +3313,16 @@
       <c r="C122" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="D122" s="2">
+        <v>541.3</v>
+      </c>
+      <c r="E122" s="2">
+        <f>D122*11925</f>
+        <v>6455002.5</v>
+      </c>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>202102</v>
       </c>
@@ -3276,6 +3338,7 @@
       <c r="E123" s="2">
         <v>1158537.6</v>
       </c>
+      <c r="K123" s="2"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
